--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,12 +55,12 @@
     <t>however</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
@@ -70,87 +70,81 @@
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -163,25 +157,28 @@
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>best</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>game</t>
@@ -548,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7605633802816901</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.8172043010752689</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6774193548387096</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C6">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D6">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.6792452830188679</v>
+        <v>0.796875</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.640625</v>
+        <v>0.671875</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.671875</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6283783783783784</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D8">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>0.5797101449275363</v>
@@ -917,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5825242718446602</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C9">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D9">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.5480631276901005</v>
+        <v>0.5265423242467718</v>
       </c>
       <c r="L9">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="M9">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5636363636363636</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.4730290456431535</v>
+        <v>0.4979253112033195</v>
       </c>
       <c r="L10">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="M10">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5462184873949579</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.4426229508196721</v>
+        <v>0.4540983606557377</v>
       </c>
       <c r="L11">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="M11">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>680</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4898550724637681</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C12">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D12">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.3577981651376147</v>
+        <v>0.3433734939759036</v>
       </c>
       <c r="L12">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="M12">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>210</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4096385542168675</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.3192771084337349</v>
+        <v>0.3425076452599388</v>
       </c>
       <c r="L13">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>113</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,37 +1164,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3828125</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>51</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14">
-        <v>49</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>79</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K14">
-        <v>0.2962962962962963</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L14">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3744075829383886</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C15">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.2916666666666667</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>85</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3684210526315789</v>
+        <v>0.3622047244094488</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.2043010752688172</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>148</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1314,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3622047244094488</v>
+        <v>0.3359375</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.1646586345381526</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>208</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2623762376237624</v>
+        <v>0.2920792079207921</v>
       </c>
       <c r="C18">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>143</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D18">
-        <v>53</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>149</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K18">
-        <v>0.1419807186678352</v>
+        <v>0.1463628396143734</v>
       </c>
       <c r="L18">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M18">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2319587628865979</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,31 +1432,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.07272727272727272</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L19">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1428</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,13 +1464,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.175</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1485,31 +1482,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.04933333333333333</v>
+        <v>0.07082521117608837</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="N20">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>713</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,25 +1514,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1739130434782609</v>
+        <v>0.1575037147102526</v>
       </c>
       <c r="C21">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>228</v>
+        <v>567</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <v>0.04127829560585886</v>
+      </c>
+      <c r="L21">
+        <v>31</v>
+      </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>0.97</v>
+      </c>
+      <c r="O21">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1543,25 +1564,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1679049034175334</v>
+        <v>0.15</v>
       </c>
       <c r="C22">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>560</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1569,13 +1590,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1582278481012658</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1587,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1621,25 +1642,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1428571428571428</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E25">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>270</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1647,25 +1668,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1401869158878505</v>
+        <v>0.1396825396825397</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>184</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1673,13 +1694,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1235955056179775</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1691,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>234</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1699,25 +1720,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1214574898785425</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C28">
         <v>30</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>217</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1725,13 +1746,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1079295154185022</v>
+        <v>0.0779510022271715</v>
       </c>
       <c r="C29">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1743,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1751,25 +1772,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07589285714285714</v>
+        <v>0.07107438016528926</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F30">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>414</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1777,77 +1798,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06611570247933884</v>
+        <v>0.04580152671755725</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E31">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="F31">
-        <v>0.9299999999999999</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.04732824427480916</v>
-      </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>31</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.04441624365482234</v>
-      </c>
-      <c r="C33">
-        <v>35</v>
-      </c>
-      <c r="D33">
-        <v>41</v>
-      </c>
-      <c r="E33">
-        <v>0.15</v>
-      </c>
-      <c r="F33">
-        <v>0.85</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
